--- a/资产导入模板.xlsx
+++ b/资产导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>服务器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,14 @@
   </si>
   <si>
     <t>10.1.19.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.19.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,13 +555,13 @@
     <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="4"/>
-    <col min="18" max="18" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="4"/>
+    <col min="17" max="17" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -601,25 +605,22 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -628,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -652,30 +653,27 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2">
         <v>39668</v>
@@ -686,31 +684,28 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
+      <c r="P3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>22</v>
       </c>
       <c r="R3">
-        <v>22</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2">
         <v>39668</v>
@@ -721,22 +716,66 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>35</v>
+      <c r="P4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
       </c>
       <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>39668</v>
+      </c>
+      <c r="K5" s="2">
+        <v>43320</v>
+      </c>
+      <c r="L5">
+        <v>800</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5">
         <v>22</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="226" yWindow="274" count="15">
+  <dataValidations xWindow="226" yWindow="274" count="14">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示物理机_x000a_1 表示虚拟机_x000a_2 表示云主机" sqref="N2:N1048576">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
@@ -744,7 +783,7 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 R1:S1 L1 G1:I1"/>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 Q1:R1 L1 G1:I1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
@@ -758,13 +797,10 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示密钥认证_x000a_1 表示密码认证" sqref="P2:P1048576">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="虚拟机专用字段，填入整数，确认所填数据与数据库中宿主机的ID一致" sqref="S2:S1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="虚拟机专用字段，填入整数，确认所填数据与数据库中宿主机的ID一致" sqref="R2:R1048576">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
@@ -802,7 +838,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -841,18 +877,18 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -861,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -945,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -984,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1051,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1090,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1157,7 +1193,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1196,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -1263,7 +1299,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1302,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">

--- a/资产导入模板.xlsx
+++ b/资产导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8C6CAE-0DCC-436A-B8FB-E99A768F0918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="server" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>服务器类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VM001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.19.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NET001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,26 +156,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VM002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.1.19.101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JR002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10.1.19.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>windows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,6 +245,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -297,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +328,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,6 +380,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,11 +589,12 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="4"/>
     <col min="17" max="17" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -612,12 +645,15 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -629,10 +665,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -656,24 +692,39 @@
         <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>39668</v>
@@ -681,136 +732,66 @@
       <c r="K3" s="2">
         <v>43320</v>
       </c>
+      <c r="L3">
+        <v>800</v>
+      </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q3">
         <v>22</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2">
-        <v>39668</v>
-      </c>
-      <c r="K4" s="2">
-        <v>43320</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4">
-        <v>22</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="R3" t="s">
         <v>38</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>39668</v>
-      </c>
-      <c r="K5" s="2">
-        <v>43320</v>
-      </c>
-      <c r="L5">
-        <v>800</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations xWindow="226" yWindow="274" count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示物理机_x000a_1 表示虚拟机_x000a_2 表示云主机" sqref="N2:N1048576">
+  <dataValidations xWindow="226" yWindow="274" count="15">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1 Q1 S1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示物理机_x000a_1 表示虚拟机_x000a_2 表示云主机" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="可不填，可以后期自动获取" sqref="C1:C1048576"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 Q1:R1 L1 G1:I1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="可不填，可以后期自动获取" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="虚拟机专用字段，填入整数，确认所填数据与数据库中宿主机的ID一致" sqref="R2:R1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="虚拟机专用字段，填入整数，确认所填数据与数据库中宿主机的ID一致" sqref="S2:S1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"server"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致，若不填写，默认是当前上传文件用户" sqref="G2:G1048576">
-      <formula1>1</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致，若不填写，默认是当前上传文件用户" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="选择操作系统" sqref="R2:R1048576" xr:uid="{686118CF-10C7-4CA7-A35C-4DBF9089644F}">
+      <formula1>"linux,windows"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -838,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -882,13 +863,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -897,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -928,33 +909,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0100-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示路由器_x000a_1 表示交换机_x000a_2 表示负载均衡_x000a_3 表示wifi_x000a_4 表示VPN_x000a_5 表示其它" sqref="N2:N1048576">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0100-000007000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示路由器_x000a_1 表示交换机_x000a_2 表示负载均衡_x000a_3 表示wifi_x000a_4 表示VPN_x000a_5 表示其它" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"network"</formula1>
     </dataValidation>
   </dataValidations>
@@ -963,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -981,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1034,33 +1015,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0200-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0200-000005000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示PC机_x000a_1 表示打印机_x000a_2 表示扫描仪_x000a_3 表示其它" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示PC机_x000a_1 表示打印机_x000a_2 表示扫描仪_x000a_3 表示其它" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"office"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1069,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1087,7 +1068,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1140,33 +1121,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0300-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示防火墙_x000a_1 表示网关_x000a_2 表示其它" sqref="N2:N1048576">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000007000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示防火墙_x000a_1 表示网关_x000a_2 表示其它" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>"security"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1175,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1193,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1246,33 +1227,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0400-000007000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示磁盘阵列_x000a_1 表示网络存储器_x000a_2 表示磁带库_x000a_3 表示磁带机_x000a_4 表示其它" sqref="N2:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示磁盘阵列_x000a_1 表示网络存储器_x000a_2 表示磁带库_x000a_3 表示磁带机_x000a_4 表示其它" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0400-000008000000}">
       <formula1>"0,1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0400-00000A000000}">
       <formula1>"storage"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1281,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1299,7 +1280,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1352,33 +1333,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:K1" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机柜的ID一致" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应机房的ID一致" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0500-000003000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应用户的ID一致" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0500-000004000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 代表已上线_x000a_1 代表已下线_x000a_2 代表故障中_x000a_3 代表未使用" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576">
-      <formula1>1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示操作系统_x000a_1 表示办公/开发软件_x000a_2 表示业务软件_x000a_3 表示其它" sqref="N2:N1048576">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 G1:I1 L1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="输入整数，请确保输入的数值与数据库中对应供应商的ID一致" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0500-000007000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 表示操作系统_x000a_1 表示办公/开发软件_x000a_2 表示业务软件_x000a_3 表示其它" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>"0,1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="必填项，格式_x000a_1970-01-01" sqref="J2:K1048576" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>25569</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0500-00000A000000}">
       <formula1>"software"</formula1>
     </dataValidation>
   </dataValidations>
